--- a/data/financial_statements/socf/OGN.xlsx
+++ b/data/financial_statements/socf/OGN.xlsx
@@ -14,9 +14,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Net Income</t>
@@ -116,9 +155,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -171,12 +207,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -481,51 +514,51 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43465</v>
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="B2">
         <v>227000000</v>
@@ -568,8 +601,8 @@
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="B3">
         <v>57000000</v>
@@ -612,8 +645,8 @@
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B4">
         <v>8000000</v>
@@ -650,8 +683,8 @@
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B5">
         <v>6000000</v>
@@ -688,8 +721,8 @@
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="B6">
         <v>-53000000</v>
@@ -726,8 +759,8 @@
       </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B7">
         <v>-86000000</v>
@@ -764,8 +797,8 @@
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="B8">
         <v>161000000</v>
@@ -802,8 +835,8 @@
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="B9">
         <v>13000000</v>
@@ -840,8 +873,8 @@
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="B10">
         <v>-16000000</v>
@@ -878,8 +911,8 @@
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="I11">
         <v>67000000</v>
@@ -892,8 +925,8 @@
       </c>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="B12">
         <v>317000000</v>
@@ -936,8 +969,8 @@
       </c>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="B13">
         <v>-53000000</v>
@@ -980,8 +1013,8 @@
       </c>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="B14">
         <v>-124000000</v>
@@ -994,8 +1027,8 @@
       </c>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="C15">
         <v>-69000000</v>
@@ -1020,8 +1053,8 @@
       </c>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="B16">
         <v>-105000000</v>
@@ -1052,8 +1085,8 @@
       </c>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="B17">
         <v>-213000000</v>
@@ -1096,8 +1129,8 @@
       </c>
     </row>
     <row r="18" spans="1:14">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1131,8 +1164,8 @@
       </c>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="B19">
         <v>-74000000</v>
@@ -1160,8 +1193,8 @@
       </c>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="B20">
         <v>-3000000</v>
@@ -1204,8 +1237,8 @@
       </c>
     </row>
     <row r="21" spans="1:14">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="B21">
         <v>-77000000</v>
@@ -1248,8 +1281,8 @@
       </c>
     </row>
     <row r="22" spans="1:14">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="B22">
         <v>-73000000</v>
@@ -1292,8 +1325,8 @@
       </c>
     </row>
     <row r="23" spans="1:14">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1330,8 +1363,8 @@
       </c>
     </row>
     <row r="24" spans="1:14">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="B24">
         <v>-46000000</v>
@@ -1374,8 +1407,8 @@
       </c>
     </row>
     <row r="25" spans="1:14">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -1418,8 +1451,8 @@
       </c>
     </row>
     <row r="26" spans="1:14">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="B26">
         <v>-46000000</v>
@@ -1462,8 +1495,8 @@
       </c>
     </row>
     <row r="27" spans="1:14">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="B27">
         <v>18000000</v>
@@ -1500,8 +1533,8 @@
       </c>
     </row>
     <row r="28" spans="1:14">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B28">
         <v>-74000000</v>
@@ -1544,8 +1577,8 @@
       </c>
     </row>
     <row r="29" spans="1:14">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B29">
         <v>1.3777</v>
@@ -1557,10 +1590,10 @@
         <v>0.9483</v>
       </c>
       <c r="E29">
-        <v>1.1175</v>
+        <v>1.0877</v>
       </c>
       <c r="F29">
-        <v>1.0318</v>
+        <v>0.9972</v>
       </c>
       <c r="G29">
         <v>1.1234</v>
@@ -1582,8 +1615,8 @@
       </c>
     </row>
     <row r="30" spans="1:14">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B30">
         <v>25000000</v>
@@ -1626,8 +1659,8 @@
       </c>
     </row>
     <row r="31" spans="1:14">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -1640,8 +1673,8 @@
       </c>
     </row>
     <row r="32" spans="1:14">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="I32">
         <v>0</v>
